--- a/corpus_final/diagnostico_paragrafos_por_arquivo.xlsx
+++ b/corpus_final/diagnostico_paragrafos_por_arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,944 +458,960 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adenovirus_guia_1txt_guiavsa2023.txt</t>
+          <t>corpus_unificado.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1760</v>
+        <v>24487</v>
       </c>
       <c r="C2" t="n">
-        <v>1298</v>
+        <v>20067</v>
       </c>
       <c r="D2" t="n">
-        <v>462</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>arboviroses_nota_tecnica_1txt_notatecnica2023.txt</t>
+          <t>adenovirus_guia_1txt_guiavsa2023.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>1760</v>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>1298</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cancro_mole_protocolo_1.txt</t>
+          <t>arboviroses_nota_tecnica_1txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>384</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>chikungunya_protocolo_1.txt</t>
+          <t>cancro_mole_protocolo_1.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>384</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>chikungunya_protocolo_2.txt</t>
+          <t>chikungunya_protocolo_1.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>558</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>482</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>chikungunya_protocolo_3.txt</t>
+          <t>chikungunya_protocolo_2.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="C7" t="n">
-        <v>372</v>
+        <v>482</v>
       </c>
       <c r="D7" t="n">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>coinfeccao_com_hepatite_b_nota_tecnica_1txt_notatecnica2023.txt</t>
+          <t>chikungunya_protocolo_3.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>484</v>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>372</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>coqueluche_nota_tecnica_1txt_notatecnica2023.txt</t>
+          <t>coinfeccao_com_hepatite_b_nota_tecnica_1txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>coqueluche_nota_tecnica_2txt_notatecnica2023.txt</t>
+          <t>coqueluche_nota_tecnica_1txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>coqueluche_nota_tecnica_3txt_notatecnica2023.txt</t>
+          <t>coqueluche_nota_tecnica_2txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>colera_nota_tecnica_1txt_notatecnica2023.txt</t>
+          <t>coqueluche_nota_tecnica_3txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dengue_protocolo_1.txt</t>
+          <t>colera_nota_tecnica_1txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>551</v>
+        <v>54</v>
       </c>
       <c r="C13" t="n">
-        <v>433</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>entre_outras_protocolo_1.txt</t>
+          <t>dengue_protocolo_1.txt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1047</v>
+        <v>551</v>
       </c>
       <c r="C14" t="n">
-        <v>752</v>
+        <v>433</v>
       </c>
       <c r="D14" t="n">
-        <v>295</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>febre_amarela_protocolo_2.txt</t>
+          <t>entre_outras_protocolo_1.txt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>515</v>
+        <v>1047</v>
       </c>
       <c r="C15" t="n">
-        <v>378</v>
+        <v>752</v>
       </c>
       <c r="D15" t="n">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>febre_amarela_protocolo_3.txt</t>
+          <t>febre_amarela_protocolo_2.txt</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315</v>
+        <v>515</v>
       </c>
       <c r="C16" t="n">
-        <v>243</v>
+        <v>378</v>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hanseniase_diretriz_nacional_1txt_documento2023.txt</t>
+          <t>febre_amarela_protocolo_3.txt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C17" t="n">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hanseniase_nota_tecnica_1txt_notatecnica2023.txt</t>
+          <t>hanseniase_diretriz_nacional_1txt_documento2023.txt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="C18" t="n">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hanseniase_nota_tecnica_2txt_notatecnica2023.txt</t>
+          <t>hanseniase_nota_tecnica_1txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C19" t="n">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hanseniase_protocolo_1txt_protocolo2023.txt</t>
+          <t>hanseniase_nota_tecnica_2txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>583</v>
+        <v>97</v>
       </c>
       <c r="C20" t="n">
-        <v>487</v>
+        <v>62</v>
       </c>
       <c r="D20" t="n">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hanseniase_protocolo_2txt_protocolo2023.txt</t>
+          <t>hanseniase_protocolo_1txt_protocolo2023.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>237</v>
+        <v>583</v>
       </c>
       <c r="C21" t="n">
-        <v>222</v>
+        <v>487</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hanseniase_protocolo_3txt_protocolo2023.txt</t>
+          <t>hanseniase_protocolo_2txt_protocolo2023.txt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hantavirose_manual_1.txt</t>
+          <t>hanseniase_protocolo_3txt_protocolo2023.txt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1245</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hantavirose_manual_2.txt</t>
+          <t>hantavirose_manual_1.txt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>1245</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hepatite_a_nota_tecnica_1txt_notatecnica2023.txt</t>
+          <t>hantavirose_manual_2.txt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hepatite_a_nota_tecnica_2txt_notatecnica2023.txt</t>
+          <t>hepatite_a_nota_tecnica_1txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C26" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hepatite_a_protocolo_1.txt</t>
+          <t>hepatite_a_nota_tecnica_2txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1370</v>
+        <v>84</v>
       </c>
       <c r="C27" t="n">
-        <v>1030</v>
+        <v>65</v>
       </c>
       <c r="D27" t="n">
-        <v>340</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>influenza_guia_2.txt</t>
+          <t>hepatite_a_protocolo_1.txt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>315</v>
+        <v>1370</v>
       </c>
       <c r="C28" t="n">
-        <v>227</v>
+        <v>1030</v>
       </c>
       <c r="D28" t="n">
-        <v>88</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>leishmaniose_manual_1.txt</t>
+          <t>influenza_guia_2.txt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1702</v>
+        <v>315</v>
       </c>
       <c r="C29" t="n">
-        <v>1319</v>
+        <v>227</v>
       </c>
       <c r="D29" t="n">
-        <v>383</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>leptospirose_nota_tecnica_1txt_notatecnica2023.txt</t>
+          <t>leishmaniose_manual_1.txt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47</v>
+        <v>1702</v>
       </c>
       <c r="C30" t="n">
-        <v>43</v>
+        <v>1319</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>leptospirose_nota_tecnica_2txt_notatecnica2023.txt</t>
+          <t>leptospirose_nota_tecnica_1txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C31" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>leptospirose_nota_tecnica_3txt_notatecnica2023.txt</t>
+          <t>leptospirose_nota_tecnica_2txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>malaria_guia_1txt_guiavsa2023.txt</t>
+          <t>leptospirose_nota_tecnica_3txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>malaria_manual_1txt_manual2023.txt</t>
+          <t>malaria_guia_1txt_guiavsa2023.txt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C34" t="n">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="D34" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>meningite_nota_tecnica_1txt_notatecnica2023.txt</t>
+          <t>malaria_manual_1txt_manual2023.txt</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C35" t="n">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="D35" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>peste_manual_2.txt</t>
+          <t>meningite_nota_tecnica_1txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>891</v>
+        <v>130</v>
       </c>
       <c r="C36" t="n">
-        <v>704</v>
+        <v>109</v>
       </c>
       <c r="D36" t="n">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>poliomielite_diretriz_nacional_1.txt</t>
+          <t>peste_manual_2.txt</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>658</v>
+        <v>891</v>
       </c>
       <c r="C37" t="n">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="D37" t="n">
-        <v>120</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>poliomielite_nota_tecnica_2txt_notatecnica2023.txt</t>
+          <t>poliomielite_diretriz_nacional_1.txt</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79</v>
+        <v>658</v>
       </c>
       <c r="C38" t="n">
-        <v>73</v>
+        <v>538</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>poliomielite_nota_tecnica_3txt_notatecnica2023.txt</t>
+          <t>poliomielite_nota_tecnica_2txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>raiva_humana_protocolo_1.txt</t>
+          <t>poliomielite_nota_tecnica_3txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>raiva_humana_protocolo_2.txt</t>
+          <t>raiva_humana_protocolo_1.txt</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>rubeola_nota_tecnica_2txt_notatecnica2023.txt</t>
+          <t>raiva_humana_protocolo_2.txt</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>rubeola_nota_tecnica_3txt_notatecnica2023.txt</t>
+          <t>rubeola_nota_tecnica_2txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>rubeola_protocolo_2txt_protocolo2023.txt</t>
+          <t>rubeola_nota_tecnica_3txt_notatecnica2023.txt</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C44" t="n">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sarampo_protocolo_3.txt</t>
+          <t>rubeola_protocolo_2txt_protocolo2023.txt</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C45" t="n">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sifilis_manual_1txt_manual2023.txt</t>
+          <t>sarampo_protocolo_3.txt</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C46" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_1.txt</t>
+          <t>sifilis_manual_1txt_manual2023.txt</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1545</v>
+        <v>108</v>
       </c>
       <c r="C47" t="n">
-        <v>1345</v>
+        <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_10.txt</t>
+          <t>tuberculose_protocolo_1.txt</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>1545</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>1345</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_11.txt</t>
+          <t>tuberculose_protocolo_10.txt</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_13.txt</t>
+          <t>tuberculose_protocolo_11.txt</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_14.txt</t>
+          <t>tuberculose_protocolo_13.txt</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>727</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="D51" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_2.txt</t>
+          <t>tuberculose_protocolo_14.txt</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>34</v>
+        <v>727</v>
       </c>
       <c r="C52" t="n">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_3.txt</t>
+          <t>tuberculose_protocolo_2.txt</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3474</v>
+        <v>34</v>
       </c>
       <c r="C53" t="n">
-        <v>3138</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
-        <v>336</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_4.txt</t>
+          <t>tuberculose_protocolo_3.txt</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>59</v>
+        <v>3474</v>
       </c>
       <c r="C54" t="n">
-        <v>41</v>
+        <v>3138</v>
       </c>
       <c r="D54" t="n">
-        <v>18</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_5.txt</t>
+          <t>tuberculose_protocolo_4.txt</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>979</v>
+        <v>59</v>
       </c>
       <c r="C55" t="n">
-        <v>877</v>
+        <v>41</v>
       </c>
       <c r="D55" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_6.txt</t>
+          <t>tuberculose_protocolo_5.txt</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>373</v>
+        <v>979</v>
       </c>
       <c r="C56" t="n">
-        <v>249</v>
+        <v>877</v>
       </c>
       <c r="D56" t="n">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_7.txt</t>
+          <t>tuberculose_protocolo_6.txt</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="C57" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D57" t="n">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_8.txt</t>
+          <t>tuberculose_protocolo_7.txt</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C58" t="n">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="D58" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>tuberculose_protocolo_9.txt</t>
+          <t>tuberculose_protocolo_8.txt</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>tuberculose_protocolo_9.txt</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>zoonoses_manual_1.txt</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B61" t="n">
         <v>1421</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C61" t="n">
         <v>1229</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D61" t="n">
         <v>192</v>
       </c>
     </row>
